--- a/Sean/Trials/CNN Trial 7.xlsx
+++ b/Sean/Trials/CNN Trial 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>Training Cost</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1304,6 +1304,1426 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>32119896.35</v>
+      </c>
+      <c r="C13">
+        <v>40023044</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.0260000005364418</v>
+      </c>
+      <c r="L13">
+        <v>0.02400000020861626</v>
+      </c>
+      <c r="M13">
+        <v>45.49777865409851</v>
+      </c>
+      <c r="N13">
+        <v>0.0001</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+      <c r="P13">
+        <v>1000</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1000</v>
+      </c>
+      <c r="U13">
+        <v>1000</v>
+      </c>
+      <c r="V13" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>37307487.75625001</v>
+      </c>
+      <c r="C14">
+        <v>17267404</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.01400000043213367</v>
+      </c>
+      <c r="L14">
+        <v>0.01799999922513962</v>
+      </c>
+      <c r="M14">
+        <v>45.86110377311707</v>
+      </c>
+      <c r="N14">
+        <v>0.0001</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1000</v>
+      </c>
+      <c r="U14">
+        <v>1000</v>
+      </c>
+      <c r="V14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>25028934.075</v>
+      </c>
+      <c r="C15">
+        <v>20825604</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.02199999988079071</v>
+      </c>
+      <c r="L15">
+        <v>0.02700000070035458</v>
+      </c>
+      <c r="M15">
+        <v>45.39887094497681</v>
+      </c>
+      <c r="N15">
+        <v>0.0001</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="P15">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1000</v>
+      </c>
+      <c r="U15">
+        <v>1000</v>
+      </c>
+      <c r="V15" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>48262647.6</v>
+      </c>
+      <c r="C16">
+        <v>44757876</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="L16">
+        <v>0.04100000113248825</v>
+      </c>
+      <c r="M16">
+        <v>45.26687574386597</v>
+      </c>
+      <c r="N16">
+        <v>0.0001</v>
+      </c>
+      <c r="O16">
+        <v>1000</v>
+      </c>
+      <c r="P16">
+        <v>1000</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1000</v>
+      </c>
+      <c r="U16">
+        <v>1000</v>
+      </c>
+      <c r="V16" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>25473450.425</v>
+      </c>
+      <c r="C17">
+        <v>22779570</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.02999999932944775</v>
+      </c>
+      <c r="L17">
+        <v>0.02800000086426735</v>
+      </c>
+      <c r="M17">
+        <v>45.4555504322052</v>
+      </c>
+      <c r="N17">
+        <v>0.0001</v>
+      </c>
+      <c r="O17">
+        <v>1000</v>
+      </c>
+      <c r="P17">
+        <v>1000</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1000</v>
+      </c>
+      <c r="U17">
+        <v>1000</v>
+      </c>
+      <c r="V17" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>30576292.875</v>
+      </c>
+      <c r="C18">
+        <v>18553128</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.02400000020861626</v>
+      </c>
+      <c r="L18">
+        <v>0.02899999916553497</v>
+      </c>
+      <c r="M18">
+        <v>46.69511032104492</v>
+      </c>
+      <c r="N18">
+        <v>0.0001</v>
+      </c>
+      <c r="O18">
+        <v>1000</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1000</v>
+      </c>
+      <c r="U18">
+        <v>1000</v>
+      </c>
+      <c r="V18" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>33158467.55</v>
+      </c>
+      <c r="C19">
+        <v>36413732</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>64</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="L19">
+        <v>0.02400000020861626</v>
+      </c>
+      <c r="M19">
+        <v>46.34493947029114</v>
+      </c>
+      <c r="N19">
+        <v>0.0001</v>
+      </c>
+      <c r="O19">
+        <v>1000</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1000</v>
+      </c>
+      <c r="U19">
+        <v>1000</v>
+      </c>
+      <c r="V19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15477267.15</v>
+      </c>
+      <c r="C20">
+        <v>13402166</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <v>64</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.02800000086426735</v>
+      </c>
+      <c r="L20">
+        <v>0.03099999949336052</v>
+      </c>
+      <c r="M20">
+        <v>45.17097139358521</v>
+      </c>
+      <c r="N20">
+        <v>0.0001</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="P20">
+        <v>1000</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="U20">
+        <v>1000</v>
+      </c>
+      <c r="V20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>33370459.975</v>
+      </c>
+      <c r="C21">
+        <v>21445406</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>64</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.03200000151991844</v>
+      </c>
+      <c r="L21">
+        <v>0.03400000184774399</v>
+      </c>
+      <c r="M21">
+        <v>45.32555413246155</v>
+      </c>
+      <c r="N21">
+        <v>0.0001</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="P21">
+        <v>1000</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1000</v>
+      </c>
+      <c r="U21">
+        <v>1000</v>
+      </c>
+      <c r="V21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>42531652.05</v>
+      </c>
+      <c r="C22">
+        <v>28347142</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <v>64</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.04500000178813934</v>
+      </c>
+      <c r="L22">
+        <v>0.02800000086426735</v>
+      </c>
+      <c r="M22">
+        <v>46.89874768257141</v>
+      </c>
+      <c r="N22">
+        <v>0.0001</v>
+      </c>
+      <c r="O22">
+        <v>1000</v>
+      </c>
+      <c r="P22">
+        <v>1000</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1000</v>
+      </c>
+      <c r="U22">
+        <v>1000</v>
+      </c>
+      <c r="V22" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>25329136.94375</v>
+      </c>
+      <c r="C23">
+        <v>17237462</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.02800000086426735</v>
+      </c>
+      <c r="L23">
+        <v>0.02999999932944775</v>
+      </c>
+      <c r="M23">
+        <v>46.60731840133667</v>
+      </c>
+      <c r="N23">
+        <v>0.0001</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>1000</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1000</v>
+      </c>
+      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+      <c r="X23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>19039007.95</v>
+      </c>
+      <c r="C24">
+        <v>10822322</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>64</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.03500000014901161</v>
+      </c>
+      <c r="L24">
+        <v>0.0260000005364418</v>
+      </c>
+      <c r="M24">
+        <v>47.03755331039429</v>
+      </c>
+      <c r="N24">
+        <v>0.0001</v>
+      </c>
+      <c r="O24">
+        <v>1000</v>
+      </c>
+      <c r="P24">
+        <v>1000</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1000</v>
+      </c>
+      <c r="U24">
+        <v>1000</v>
+      </c>
+      <c r="V24" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27684157.65</v>
+      </c>
+      <c r="C25">
+        <v>18167576</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>64</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="L25">
+        <v>0.03500000014901161</v>
+      </c>
+      <c r="M25">
+        <v>46.88458490371704</v>
+      </c>
+      <c r="N25">
+        <v>0.0001</v>
+      </c>
+      <c r="O25">
+        <v>1000</v>
+      </c>
+      <c r="P25">
+        <v>1000</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1000</v>
+      </c>
+      <c r="U25">
+        <v>1000</v>
+      </c>
+      <c r="V25" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>17018320.196875</v>
+      </c>
+      <c r="C26">
+        <v>25012366</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>64</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.02800000086426735</v>
+      </c>
+      <c r="L26">
+        <v>0.02899999916553497</v>
+      </c>
+      <c r="M26">
+        <v>46.85140919685364</v>
+      </c>
+      <c r="N26">
+        <v>0.0001</v>
+      </c>
+      <c r="O26">
+        <v>1000</v>
+      </c>
+      <c r="P26">
+        <v>1000</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1000</v>
+      </c>
+      <c r="U26">
+        <v>1000</v>
+      </c>
+      <c r="V26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>18616328.225</v>
+      </c>
+      <c r="C27">
+        <v>22041472</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.04500000178813934</v>
+      </c>
+      <c r="L27">
+        <v>0.0260000005364418</v>
+      </c>
+      <c r="M27">
+        <v>45.87591218948364</v>
+      </c>
+      <c r="N27">
+        <v>0.0001</v>
+      </c>
+      <c r="O27">
+        <v>1000</v>
+      </c>
+      <c r="P27">
+        <v>1000</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1000</v>
+      </c>
+      <c r="U27">
+        <v>1000</v>
+      </c>
+      <c r="V27" t="s">
+        <v>24</v>
+      </c>
+      <c r="X27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>20077122</v>
+      </c>
+      <c r="C28">
+        <v>11324145</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>64</v>
+      </c>
+      <c r="H28">
+        <v>64</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.04399999976158142</v>
+      </c>
+      <c r="L28">
+        <v>0.03099999949336052</v>
+      </c>
+      <c r="M28">
+        <v>45.79080629348755</v>
+      </c>
+      <c r="N28">
+        <v>0.0001</v>
+      </c>
+      <c r="O28">
+        <v>1000</v>
+      </c>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1000</v>
+      </c>
+      <c r="U28">
+        <v>1000</v>
+      </c>
+      <c r="V28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>11145562.95</v>
+      </c>
+      <c r="C29">
+        <v>11766206</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+      <c r="H29">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.03799999877810478</v>
+      </c>
+      <c r="L29">
+        <v>0.03599999845027924</v>
+      </c>
+      <c r="M29">
+        <v>45.60142946243286</v>
+      </c>
+      <c r="N29">
+        <v>0.0001</v>
+      </c>
+      <c r="O29">
+        <v>1000</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1000</v>
+      </c>
+      <c r="U29">
+        <v>1000</v>
+      </c>
+      <c r="V29" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>21700347.61875</v>
+      </c>
+      <c r="C30">
+        <v>18480254</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.03099999949336052</v>
+      </c>
+      <c r="L30">
+        <v>0.03500000014901161</v>
+      </c>
+      <c r="M30">
+        <v>45.3920521736145</v>
+      </c>
+      <c r="N30">
+        <v>0.0001</v>
+      </c>
+      <c r="O30">
+        <v>1000</v>
+      </c>
+      <c r="P30">
+        <v>1000</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1000</v>
+      </c>
+      <c r="U30">
+        <v>1000</v>
+      </c>
+      <c r="V30" t="s">
+        <v>24</v>
+      </c>
+      <c r="X30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12717627.925</v>
+      </c>
+      <c r="C31">
+        <v>13064346</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>64</v>
+      </c>
+      <c r="H31">
+        <v>64</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.03599999845027924</v>
+      </c>
+      <c r="L31">
+        <v>0.0390000008046627</v>
+      </c>
+      <c r="M31">
+        <v>45.38450241088867</v>
+      </c>
+      <c r="N31">
+        <v>0.0001</v>
+      </c>
+      <c r="O31">
+        <v>1000</v>
+      </c>
+      <c r="P31">
+        <v>1000</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1000</v>
+      </c>
+      <c r="U31">
+        <v>1000</v>
+      </c>
+      <c r="V31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>24950320.025</v>
+      </c>
+      <c r="C32">
+        <v>24092684</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>64</v>
+      </c>
+      <c r="H32">
+        <v>64</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.04100000113248825</v>
+      </c>
+      <c r="L32">
+        <v>0.04199999943375587</v>
+      </c>
+      <c r="M32">
+        <v>45.58070635795593</v>
+      </c>
+      <c r="N32">
+        <v>0.0001</v>
+      </c>
+      <c r="O32">
+        <v>1000</v>
+      </c>
+      <c r="P32">
+        <v>1000</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1000</v>
+      </c>
+      <c r="U32">
+        <v>1000</v>
+      </c>
+      <c r="V32" t="s">
+        <v>24</v>
+      </c>
+      <c r="X32">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
